--- a/数据整理/stocks/A股/深证主板/002252-上海莱士.xlsx
+++ b/数据整理/stocks/A股/深证主板/002252-上海莱士.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>41.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>99.23</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.21</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3453</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -576,15 +606,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>33.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>99.40</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.40</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1417</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002252-上海莱士.xlsx
+++ b/数据整理/stocks/A股/深证主板/002252-上海莱士.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -631,4 +632,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512290</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9244</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002252-上海莱士.xlsx
+++ b/数据整理/stocks/A股/深证主板/002252-上海莱士.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -726,4 +727,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512290</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0680</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002252-上海莱士.xlsx
+++ b/数据整理/stocks/A股/深证主板/002252-上海莱士.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -821,4 +822,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002252-上海莱士.xlsx
+++ b/数据整理/stocks/A股/深证主板/002252-上海莱士.xlsx
@@ -846,12 +846,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002252-上海莱士.xlsx
+++ b/数据整理/stocks/A股/深证主板/002252-上海莱士.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -830,7 +831,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -841,17 +842,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -861,14 +882,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.07</v>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8336</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -877,14 +920,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.92</v>
+          <t>163801</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银中国混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2484</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -893,14 +958,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2265</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1.14</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="5">
@@ -909,13 +1080,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
         <v>1.35</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002252-上海莱士.xlsx
+++ b/数据整理/stocks/A股/深证主板/002252-上海莱士.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1001,7 +1002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1012,17 +1013,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1032,14 +1053,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.31</v>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1048,14 +1091,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>1.07</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="4">
@@ -1064,14 +1197,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="5">
@@ -1080,14 +1213,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1.14</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="6">
@@ -1096,13 +1229,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
         <v>1.35</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002252-上海莱士.xlsx
+++ b/数据整理/stocks/A股/深证主板/002252-上海莱士.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,91 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>512290</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰中证生物医药ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>41.91</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.23</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.3453</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -550,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -601,36 +639,74 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>512290</t>
+          <t>002334</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰中证生物医药ETF</t>
+          <t>汇丰晋信大盘波动精选股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>33.58</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.40</t>
+          <t>90.31</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1417</t>
+          <t>0.0025</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -644,7 +720,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,7 +741,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -695,36 +771,112 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>512290</t>
+          <t>002666</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰中证生物医药ETF</t>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>26.41</t>
+          <t>11.96</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.91</t>
+          <t>81.64</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>6.97</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9244</t>
+          <t>0.8336</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163801</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银中国混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2484</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2265</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -832,7 +984,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -853,7 +1005,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -883,112 +1035,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002666</t>
+          <t>512290</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源沪港深创新成长灵活配置混合A</t>
+          <t>国泰中证生物医药ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.96</t>
+          <t>26.41</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.64</t>
+          <t>98.91</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.97</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8336</t>
+          <t>0.9244</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>163801</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中银中国混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>10.14</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.19</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2484</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002667</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源沪港深创新成长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>81.64</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.97</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2265</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1002,7 +1078,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1023,7 +1099,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1053,74 +1129,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002334</t>
+          <t>512290</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇丰晋信大盘波动精选股票A</t>
+          <t>国泰中证生物医药ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>33.58</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.31</t>
+          <t>99.40</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0025</t>
+          <t>1.1417</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002335</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇丰晋信大盘波动精选股票C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.31</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1134,128 +1172,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.31</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.07</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.14</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.35</v>
+          <t>512290</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3453</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002252-上海莱士.xlsx
+++ b/数据整理/stocks/A股/深证主板/002252-上海莱士.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>1.07</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1.14</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
         <v>1.35</v>
       </c>
     </row>
@@ -583,6 +600,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512290</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9402</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -714,7 +825,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -877,100 +988,6 @@
       </c>
       <c r="H4" t="n">
         <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>512290</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰中证生物医药ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>29.18</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>98.99</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.0680</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1045,22 +1062,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>26.41</t>
+          <t>29.18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.91</t>
+          <t>98.99</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9244</t>
+          <t>1.0680</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1139,22 +1156,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>33.58</t>
+          <t>26.41</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.40</t>
+          <t>98.91</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1417</t>
+          <t>0.9244</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1167,6 +1184,100 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512290</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1417</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002252-上海莱士.xlsx
+++ b/数据整理/stocks/A股/深证主板/002252-上海莱士.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>1.07</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1.14</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
         <v>1.35</v>
       </c>
     </row>
@@ -600,6 +617,442 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512290</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>39.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1543</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000968</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1600</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>450008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国富沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014206</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城中证医药卫生指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002982</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014205</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城中证医药卫生指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>516560</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝养老ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -693,7 +1146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -825,7 +1278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -988,100 +1441,6 @@
       </c>
       <c r="H4" t="n">
         <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>512290</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰中证生物医药ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>29.18</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>98.99</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.0680</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1156,22 +1515,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>26.41</t>
+          <t>29.18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.91</t>
+          <t>98.99</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9244</t>
+          <t>1.0680</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1250,22 +1609,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>33.58</t>
+          <t>26.41</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.40</t>
+          <t>98.91</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1417</t>
+          <t>0.9244</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1278,6 +1637,100 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512290</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1417</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
